--- a/biology/Botanique/Dimorphanthera/Dimorphanthera.xlsx
+++ b/biology/Botanique/Dimorphanthera/Dimorphanthera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dimorphanthera est un genre de plantes à fleurs de la famille des Ericaceae, pour la plupart originaires de Nouvelle-Guinée ou de ses alentours. 
 Proches des airelles, ce sont des plantes des régions chaudes et humides, plus ou moins grimpantes, dont les fleurs sont en forme de tube.
@@ -512,11 +524,13 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de plantes de ce genre forment des buissons, de petits arbres ou parfois même des lianes. Toutes se servent d'autres espèces de plantes, comme tuteur ou pour grimper[2].
-Les fleurs en forme de tube sont attractives pour les oiseaux, leurs probables pollinisateurs[2], elles vont du violet au vert, en passant par le rouge et le blanc, selon les espèces. Les anthères, caractéristiques, sont ligneuses et dissemblables, ce qui distingue ces plantes des Agapetes, Vaccinium et Paphia, d'autres éricacées proches des Rhododendrons, avec lesquelles on les a souvent confondues[3].
-Les fruits, d'abord verts puis virant au noir au mûrissement, font penser aux myrtilles du genre Vaccinium voisin[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de plantes de ce genre forment des buissons, de petits arbres ou parfois même des lianes. Toutes se servent d'autres espèces de plantes, comme tuteur ou pour grimper.
+Les fleurs en forme de tube sont attractives pour les oiseaux, leurs probables pollinisateurs, elles vont du violet au vert, en passant par le rouge et le blanc, selon les espèces. Les anthères, caractéristiques, sont ligneuses et dissemblables, ce qui distingue ces plantes des Agapetes, Vaccinium et Paphia, d'autres éricacées proches des Rhododendrons, avec lesquelles on les a souvent confondues.
+Les fruits, d'abord verts puis virant au noir au mûrissement, font penser aux myrtilles du genre Vaccinium voisin.
 </t>
         </is>
       </c>
@@ -545,14 +559,86 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Décrit en 1889 sous le basionyme de Agapetes subg. Dimorphanthera par Carl Georg Oscar Drude (1852-1933) à la suite des travaux de Ferdinand Jacob Heinrich von Mueller (1825-1896), ce sous-genre d'Agapetes (parfois inclus dans Vaccinium L.[1]) a été élevé au rang de genre par Mueller en 1890[4],[5].
-En classification phylogénétique APG III (2009)[6] ce genre est assigné à la famille des Ericaceae, éventuellement dans la sous-famille des Vaccinioideae, tribu des Vaccinieae[7].
-Étymologie
-Di-morph-anthera est composé de di, deux, morphus, forme, et anthera, anthère. Ce nom fait référence aux anthères qui sont de deux tailles différentes, contrairement à l'habitude[2]. 
-Liste d'espèces
-Selon GRIN            (13 juin 2017)[7] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Décrit en 1889 sous le basionyme de Agapetes subg. Dimorphanthera par Carl Georg Oscar Drude (1852-1933) à la suite des travaux de Ferdinand Jacob Heinrich von Mueller (1825-1896), ce sous-genre d'Agapetes (parfois inclus dans Vaccinium L.) a été élevé au rang de genre par Mueller en 1890,.
+En classification phylogénétique APG III (2009) ce genre est assigné à la famille des Ericaceae, éventuellement dans la sous-famille des Vaccinioideae, tribu des Vaccinieae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dimorphanthera</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dimorphanthera</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Di-morph-anthera est composé de di, deux, morphus, forme, et anthera, anthère. Ce nom fait référence aux anthères qui sont de deux tailles différentes, contrairement à l'habitude. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dimorphanthera</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dimorphanthera</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GRIN            (13 juin 2017) :
 Dimorphanthera amoena Sleumer
 Dimorphanthera brassii Sleumer
 Dimorphanthera collinsii Sleumer
@@ -562,7 +648,7 @@
 Dimorphanthera leucostoma Sleumer
 Dimorphanthera microphylla Sleumer
 Dimorphanthera moorhousiana F. Muell.
-Selon The Plant List            (13 juin 2017)[8] :
+Selon The Plant List            (13 juin 2017) :
 Dimorphanthera alba J.J.Sm.
 Dimorphanthera albida P.F.Stevens
 Dimorphanthera albiflora Schltr.
@@ -641,7 +727,7 @@
 Dimorphanthera womersleyi Sleumer
 Dimorphanthera wrightiana (Koord.) J.J.Sm.
 Espèces et synonymes selon Tropicos
-Selon Tropicos                                           (13 juin 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (13 juin 2017) (Attention liste brute contenant possiblement des synonymes) :
 Dimorphanthera alba J.J. Sm.
 Dimorphanthera albida P.F. Stevens
 Dimorphanthera albiflora Schltr.
@@ -741,31 +827,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Dimorphanthera</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Dimorphanthera</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Collections</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin botanique royal d'Édimbourg cultive notamment une riche collection de Dimorphanthera.
 </t>
